--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2666.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2666.xlsx
@@ -354,7 +354,7 @@
         <v>2.422377842409781</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.326652798806071</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2666.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2666.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159835983485228</v>
+        <v>1.493952035903931</v>
       </c>
       <c r="B1">
-        <v>2.422377842409781</v>
+        <v>1.496298551559448</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.60165548324585</v>
       </c>
       <c r="D1">
-        <v>2.326652798806071</v>
+        <v>2.276792287826538</v>
       </c>
       <c r="E1">
-        <v>1.210331428031516</v>
+        <v>4.348421573638916</v>
       </c>
     </row>
   </sheetData>
